--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl22-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl22-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Ccl22</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.406485</v>
+        <v>0.396835</v>
       </c>
       <c r="H2">
-        <v>1.219455</v>
+        <v>1.190505</v>
       </c>
       <c r="I2">
-        <v>0.2077468321910953</v>
+        <v>0.4359077351420346</v>
       </c>
       <c r="J2">
-        <v>0.2077468321910953</v>
+        <v>0.4359077351420347</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1065071997</v>
+        <v>0.1039787067</v>
       </c>
       <c r="R2">
-        <v>0.9585647973</v>
+        <v>0.9358083602999999</v>
       </c>
       <c r="S2">
-        <v>0.2077468321910953</v>
+        <v>0.4359077351420346</v>
       </c>
       <c r="T2">
-        <v>0.2077468321910953</v>
+        <v>0.4359077351420347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.287826</v>
+        <v>0.5135296666666667</v>
       </c>
       <c r="H3">
-        <v>0.863478</v>
+        <v>1.540589</v>
       </c>
       <c r="I3">
-        <v>0.1471024508216396</v>
+        <v>0.5640922648579653</v>
       </c>
       <c r="J3">
-        <v>0.1471024508216396</v>
+        <v>0.5640922648579654</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,78 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.07541616851999998</v>
+        <v>0.13455504326</v>
       </c>
       <c r="R3">
-        <v>0.6787455166799999</v>
+        <v>1.21099538934</v>
       </c>
       <c r="S3">
-        <v>0.1471024508216396</v>
+        <v>0.5640922648579653</v>
       </c>
       <c r="T3">
-        <v>0.1471024508216396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.262325333333334</v>
-      </c>
-      <c r="H4">
-        <v>3.786976000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.6451507169872651</v>
-      </c>
-      <c r="J4">
-        <v>0.6451507169872651</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.26202</v>
-      </c>
-      <c r="N4">
-        <v>0.78606</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.33075448384</v>
-      </c>
-      <c r="R4">
-        <v>2.97679035456</v>
-      </c>
-      <c r="S4">
-        <v>0.6451507169872651</v>
-      </c>
-      <c r="T4">
-        <v>0.6451507169872651</v>
+        <v>0.5640922648579654</v>
       </c>
     </row>
   </sheetData>
